--- a/ResourceFiles/Contoso Asset Data.xlsx
+++ b/ResourceFiles/Contoso Asset Data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/BUSS/Learn courses/MS-4004 - V2 Mar 2025/Source docs/LP2-Empower your workforce with M365 use cases/M3-IT use case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY25\ILT\MSU121821_ILT_May\MS-4004_GitHub\10_DTP\de-DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F24788-D150-41C9-960F-BE33EF34EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="4" r:id="rId6"/>
-    <sheet name="Blatt4" sheetId="5" r:id="rId7"/>
-    <sheet name="Blatt5" sheetId="6" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Blatt4" sheetId="5" r:id="rId4"/>
+    <sheet name="Blatt5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3328" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -92,18 +92,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF424242"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ablaufdatum der Lizenz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
@@ -2250,25 +2238,22 @@
       </rPr>
       <t>Drucker insgesamt</t>
     </r>
+  </si>
+  <si>
+    <t>Ablaufdatum der Lizenz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2282,20 +2267,6 @@
       <color rgb="FF424242"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.35"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2337,6 +2308,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2347,6 +2319,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2361,6 +2334,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2373,134 +2347,39 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2513,7 +2392,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2525,13 +2405,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0]Tabelle2!PivotTable1</c:name>
+    <c:name>[50976.ResourceFiles.Contoso Asset Data.xlsx]Tabelle2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2551,7 +2432,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2581,45 +2461,124 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2640,9 +2599,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2654,9 +2613,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2668,9 +2633,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2682,9 +2653,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -2696,9 +2673,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -2710,9 +2693,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -2724,9 +2713,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -2740,6 +2735,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BAAA-4B70-9743-297264C010E9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2815,6 +2815,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
+        <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -2826,7 +2827,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2836,11 +2836,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2875,6 +2875,11 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
@@ -2886,7 +2891,8 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2898,13 +2904,14 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0]Tabelle3!PivotTable2</c:name>
+    <c:name>[50976.ResourceFiles.Contoso Asset Data.xlsx]Tabelle3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2924,7 +2931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2954,45 +2960,108 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3013,9 +3082,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3027,9 +3096,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3041,9 +3116,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -3055,9 +3136,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -3069,9 +3156,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -3083,9 +3176,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -3097,6 +3196,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0B5B-41E0-A806-A7E3FF398B4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3166,6 +3270,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
+        <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3177,7 +3282,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,11 +3291,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr vert="horz" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" anchor="ctr" anchorCtr="1" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" baseline="0" kern="1200">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3226,6 +3330,11 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
       <c16:pivotOptions16>
@@ -3236,1126 +3345,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4369,24 +3360,24 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Pie. &#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ea9ce34-aef7-7af1-34f0-060468b1419e}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA9CE34-AEF7-7AF1-34F0-060468B1419E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3286125" y="571500"/>
-        <a:ext cx="5105400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4396,7 +3387,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4410,24 +3401,24 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Pie. &#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f65844f0-5dcb-f56c-ed1d-a4beee34dfe3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65844F0-5DCB-F56C-ED1D-A4BEEE34DFE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3838575" y="571500"/>
-        <a:ext cx="5105400" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4437,7 +3428,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedBy="Excel Services" refreshedDate="45746.751344791664" recordCount="104">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45746.751344791664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF000D0000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G105" sheet="Tabelle1"/>
   </cacheSource>
@@ -4559,79 +3550,79 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Purchase Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-04-25T00:00:00" maxDate="2025-01-31T00:00:00" count="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-04-25T00:00:00" maxDate="2025-01-31T00:00:00"/>
     </cacheField>
     <cacheField name="Warranty Expiration Date" numFmtId="14">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-04-25T00:00:00" maxDate="2028-01-31T00:00:00" count="65">
-        <d v="2025-03-25T00:00:00.000"/>
-        <d v="2024-07-14T00:00:00.000"/>
+        <d v="2025-03-25T00:00:00"/>
+        <d v="2024-07-14T00:00:00"/>
         <m/>
-        <d v="2025-11-05T00:00:00.000"/>
-        <d v="2022-05-22T00:00:00.000"/>
-        <d v="2025-08-30T00:00:00.000"/>
-        <d v="2025-06-15T00:00:00.000"/>
-        <d v="2027-06-18T00:00:00.000"/>
-        <d v="2022-09-10T00:00:00.000"/>
-        <d v="2025-04-05T00:00:00.000"/>
-        <d v="2025-05-20T00:00:00.000"/>
-        <d v="2023-03-30T00:00:00.000"/>
-        <d v="2025-08-25T00:00:00.000"/>
-        <d v="2025-06-10T00:00:00.000"/>
-        <d v="2025-08-15T00:00:00.000"/>
-        <d v="2025-12-20T00:00:00.000"/>
-        <d v="2022-04-25T00:00:00.000"/>
-        <d v="2025-09-30T00:00:00.000"/>
-        <d v="2026-11-10T00:00:00.000"/>
-        <d v="2022-06-05T00:00:00.000"/>
-        <d v="2025-06-20T00:00:00.000"/>
-        <d v="2025-07-25T00:00:00.000"/>
-        <d v="2023-01-10T00:00:00.000"/>
-        <d v="2025-05-30T00:00:00.000"/>
-        <d v="2027-09-20T00:00:00.000"/>
-        <d v="2023-02-25T00:00:00.000"/>
-        <d v="2022-05-10T00:00:00.000"/>
-        <d v="2023-04-25T00:00:00.000"/>
-        <d v="2022-07-30T00:00:00.000"/>
-        <d v="2025-01-05T00:00:00.000"/>
-        <d v="2024-06-10T00:00:00.000"/>
-        <d v="2023-10-15T00:00:00.000"/>
-        <d v="2025-10-25T00:00:00.000"/>
-        <d v="2028-01-30T00:00:00.000"/>
-        <d v="2023-05-05T00:00:00.000"/>
-        <d v="2027-08-10T00:00:00.000"/>
-        <d v="2025-02-15T00:00:00.000"/>
-        <d v="2023-01-25T00:00:00.000"/>
-        <d v="2025-04-30T00:00:00.000"/>
-        <d v="2026-07-10T00:00:00.000"/>
-        <d v="2023-11-15T00:00:00.000"/>
-        <d v="2026-03-25T00:00:00.000"/>
-        <d v="2026-11-05T00:00:00.000"/>
-        <d v="2025-12-15T00:00:00.000"/>
-        <d v="2026-06-18T00:00:00.000"/>
-        <d v="2025-09-10T00:00:00.000"/>
-        <d v="2025-06-05T00:00:00.000"/>
-        <d v="2026-11-20T00:00:00.000"/>
-        <d v="2026-03-30T00:00:00.000"/>
-        <d v="2024-08-15T00:00:00.000"/>
-        <d v="2023-12-20T00:00:00.000"/>
-        <d v="2025-11-10T00:00:00.000"/>
-        <d v="2026-07-25T00:00:00.000"/>
-        <d v="2026-01-10T00:00:00.000"/>
-        <d v="2027-05-10T00:00:00.000"/>
-        <d v="2024-12-20T00:00:00.000"/>
-        <d v="2025-04-25T00:00:00.000"/>
-        <d v="2025-05-05T00:00:00.000"/>
-        <d v="2024-11-30T00:00:00.000"/>
-        <d v="2027-05-05T00:00:00.000"/>
-        <d v="2022-08-10T00:00:00.000"/>
-        <d v="2025-07-15T00:00:00.000"/>
-        <d v="2028-01-25T00:00:00.000"/>
-        <d v="2027-07-10T00:00:00.000"/>
-        <d v="2026-11-15T00:00:00.000"/>
+        <d v="2025-11-05T00:00:00"/>
+        <d v="2022-05-22T00:00:00"/>
+        <d v="2025-08-30T00:00:00"/>
+        <d v="2025-06-15T00:00:00"/>
+        <d v="2027-06-18T00:00:00"/>
+        <d v="2022-09-10T00:00:00"/>
+        <d v="2025-04-05T00:00:00"/>
+        <d v="2025-05-20T00:00:00"/>
+        <d v="2023-03-30T00:00:00"/>
+        <d v="2025-08-25T00:00:00"/>
+        <d v="2025-06-10T00:00:00"/>
+        <d v="2025-08-15T00:00:00"/>
+        <d v="2025-12-20T00:00:00"/>
+        <d v="2022-04-25T00:00:00"/>
+        <d v="2025-09-30T00:00:00"/>
+        <d v="2026-11-10T00:00:00"/>
+        <d v="2022-06-05T00:00:00"/>
+        <d v="2025-06-20T00:00:00"/>
+        <d v="2025-07-25T00:00:00"/>
+        <d v="2023-01-10T00:00:00"/>
+        <d v="2025-05-30T00:00:00"/>
+        <d v="2027-09-20T00:00:00"/>
+        <d v="2023-02-25T00:00:00"/>
+        <d v="2022-05-10T00:00:00"/>
+        <d v="2023-04-25T00:00:00"/>
+        <d v="2022-07-30T00:00:00"/>
+        <d v="2025-01-05T00:00:00"/>
+        <d v="2024-06-10T00:00:00"/>
+        <d v="2023-10-15T00:00:00"/>
+        <d v="2025-10-25T00:00:00"/>
+        <d v="2028-01-30T00:00:00"/>
+        <d v="2023-05-05T00:00:00"/>
+        <d v="2027-08-10T00:00:00"/>
+        <d v="2025-02-15T00:00:00"/>
+        <d v="2023-01-25T00:00:00"/>
+        <d v="2025-04-30T00:00:00"/>
+        <d v="2026-07-10T00:00:00"/>
+        <d v="2023-11-15T00:00:00"/>
+        <d v="2026-03-25T00:00:00"/>
+        <d v="2026-11-05T00:00:00"/>
+        <d v="2025-12-15T00:00:00"/>
+        <d v="2026-06-18T00:00:00"/>
+        <d v="2025-09-10T00:00:00"/>
+        <d v="2025-06-05T00:00:00"/>
+        <d v="2026-11-20T00:00:00"/>
+        <d v="2026-03-30T00:00:00"/>
+        <d v="2024-08-15T00:00:00"/>
+        <d v="2023-12-20T00:00:00"/>
+        <d v="2025-11-10T00:00:00"/>
+        <d v="2026-07-25T00:00:00"/>
+        <d v="2026-01-10T00:00:00"/>
+        <d v="2027-05-10T00:00:00"/>
+        <d v="2024-12-20T00:00:00"/>
+        <d v="2025-04-25T00:00:00"/>
+        <d v="2025-05-05T00:00:00"/>
+        <d v="2024-11-30T00:00:00"/>
+        <d v="2027-05-05T00:00:00"/>
+        <d v="2022-08-10T00:00:00"/>
+        <d v="2025-07-15T00:00:00"/>
+        <d v="2028-01-25T00:00:00"/>
+        <d v="2027-07-10T00:00:00"/>
+        <d v="2026-11-15T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="License Expiration Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-15T00:00:00" maxDate="2027-09-21T00:00:00" count="0"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-15T00:00:00" maxDate="2027-09-21T00:00:00"/>
     </cacheField>
     <cacheField name="Current Status" numFmtId="0">
       <sharedItems count="3">
@@ -4652,6 +3643,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -5597,11 +4593,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="0"/>
         <item h="1" x="3"/>
@@ -5612,10 +4608,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item h="1" x="1"/>
@@ -5675,10 +4671,105 @@
   <dataFields count="1">
     <dataField name="Count of Department" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -5688,11 +4779,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A6:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="0"/>
         <item h="1" x="3"/>
@@ -5703,8 +4794,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="66">
         <item x="16"/>
         <item x="26"/>
@@ -5775,7 +4866,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item h="1" x="1"/>
@@ -5833,10 +4924,93 @@
   <dataFields count="1">
     <dataField name="Count of Department" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -5846,7 +5020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:D59" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5967,8 +5141,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1" sortType="ascending">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="66">
         <item h="1" x="16"/>
         <item h="1" x="26"/>
@@ -6270,7 +5444,7 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6280,7 +5454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compact="0" compactData="0" createdVersion="8" updatedVersion="8" indent="0" multipleFieldFilters="0" showMemberPropertyTips="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000003000000}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -6391,8 +5565,8 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" numFmtId="14"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" multipleItemSelectionAllowed="1" sortType="ascending">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="66">
         <item h="1" x="16"/>
         <item h="1" x="26"/>
@@ -6522,7 +5696,7 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6847,53 +6021,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67005AA-14C9-42D3-B3AE-54C5082D7456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67005AA-14C9-42D3-B3AE-54C5082D7456}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3">
         <v>44645</v>
@@ -6903,18 +6077,18 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3">
         <v>44391</v>
@@ -6924,18 +6098,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3">
         <v>44936</v>
@@ -6945,18 +6119,18 @@
         <v>45667</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3">
         <v>44140</v>
@@ -6966,18 +6140,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3">
         <v>43607</v>
@@ -6987,18 +6161,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3">
         <v>44803</v>
@@ -7008,18 +6182,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3">
         <v>44362</v>
@@ -7029,18 +6203,18 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.15" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3">
         <v>45095</v>
@@ -7050,18 +6224,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3">
         <v>44982</v>
@@ -7071,18 +6245,18 @@
         <v>46078</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="3">
         <v>43718</v>
@@ -7092,18 +6266,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="3">
         <v>44656</v>
@@ -7113,18 +6287,18 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3">
         <v>44701</v>
@@ -7134,18 +6308,18 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="3">
         <v>43920</v>
@@ -7155,18 +6329,18 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3">
         <v>44798</v>
@@ -7176,18 +6350,18 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="3">
         <v>44931</v>
@@ -7197,18 +6371,18 @@
         <v>46392</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="3">
         <v>44722</v>
@@ -7218,18 +6392,18 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3">
         <v>44788</v>
@@ -7239,18 +6413,18 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3">
         <v>44915</v>
@@ -7260,18 +6434,18 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3">
         <v>43580</v>
@@ -7281,18 +6455,18 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3">
         <v>44834</v>
@@ -7302,18 +6476,18 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3">
         <v>44331</v>
@@ -7323,18 +6497,18 @@
         <v>46157</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3">
         <v>44875</v>
@@ -7344,18 +6518,18 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="3">
         <v>43621</v>
@@ -7365,18 +6539,18 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3">
         <v>44732</v>
@@ -7386,18 +6560,18 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="3">
         <v>44767</v>
@@ -7407,18 +6581,18 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3">
         <v>43840</v>
@@ -7428,18 +6602,18 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="3">
         <v>43692</v>
@@ -7449,18 +6623,18 @@
         <v>46249</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3">
         <v>44711</v>
@@ -7470,18 +6644,18 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="3">
         <v>45555</v>
@@ -7491,18 +6665,18 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3">
         <v>43886</v>
@@ -7512,18 +6686,18 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.45" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3">
         <v>43595</v>
@@ -7533,18 +6707,18 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3">
         <v>44788</v>
@@ -7554,18 +6728,18 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="3">
         <v>44550</v>
@@ -7575,18 +6749,18 @@
         <v>46376</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="3">
         <v>43946</v>
@@ -7596,18 +6770,18 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3">
         <v>43676</v>
@@ -7617,18 +6791,18 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3">
         <v>44566</v>
@@ -7638,18 +6812,18 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="3">
         <v>44357</v>
@@ -7659,18 +6833,18 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="3">
         <v>44119</v>
@@ -7680,18 +6854,18 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3">
         <v>44762</v>
@@ -7701,18 +6875,18 @@
         <v>46588</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3">
         <v>44859</v>
@@ -7722,18 +6896,18 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="3">
         <v>45687</v>
@@ -7743,18 +6917,18 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="3">
         <v>43956</v>
@@ -7764,18 +6938,18 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="3">
         <v>45514</v>
@@ -7785,18 +6959,18 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" s="3">
         <v>44607</v>
@@ -7806,18 +6980,18 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="3">
         <v>44824</v>
@@ -7827,18 +7001,18 @@
         <v>46650</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="3">
         <v>43855</v>
@@ -7848,18 +7022,18 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.15" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="3">
         <v>44681</v>
@@ -7869,18 +7043,18 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.45" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C49" s="3">
         <v>44656</v>
@@ -7890,18 +7064,18 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="3">
         <v>45117</v>
@@ -7911,18 +7085,18 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21.6" customHeight="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="3">
         <v>44150</v>
@@ -7932,18 +7106,18 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3">
         <v>45010</v>
@@ -7953,18 +7127,18 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3">
         <v>44391</v>
@@ -7974,18 +7148,18 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3">
         <v>45667</v>
@@ -7995,18 +7169,18 @@
         <v>46397</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.6" thickBot="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" s="3">
         <v>45235</v>
@@ -8016,18 +7190,18 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="3">
         <v>43607</v>
@@ -8037,18 +7211,18 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="3">
         <v>44803</v>
@@ -8058,18 +7232,18 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.6" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="3">
         <v>44910</v>
@@ -8079,18 +7253,18 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.6" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="3">
         <v>45095</v>
@@ -8100,18 +7274,18 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.6" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="3">
         <v>44982</v>
@@ -8121,18 +7295,18 @@
         <v>45713</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="3">
         <v>44814</v>
@@ -8142,18 +7316,18 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.6" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="3">
         <v>44717</v>
@@ -8163,18 +7337,18 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.6" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="3">
         <v>45250</v>
@@ -8184,18 +7358,18 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="3">
         <v>45015</v>
@@ -8205,18 +7379,18 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="3">
         <v>44767</v>
@@ -8226,18 +7400,18 @@
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="3">
         <v>44931</v>
@@ -8247,18 +7421,18 @@
         <v>45662</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" s="3">
         <v>44722</v>
@@ -8268,18 +7442,18 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.6" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="3">
         <v>44423</v>
@@ -8289,18 +7463,18 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="3">
         <v>44185</v>
@@ -8310,18 +7484,18 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70" s="3">
         <v>43580</v>
@@ -8331,18 +7505,18 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.6" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71" s="3">
         <v>44834</v>
@@ -8352,18 +7526,18 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.6" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="3">
         <v>44331</v>
@@ -8373,18 +7547,18 @@
         <v>45061</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.6" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="3">
         <v>44875</v>
@@ -8394,18 +7568,18 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" s="3">
         <v>43621</v>
@@ -8415,18 +7589,18 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="3">
         <v>44732</v>
@@ -8436,18 +7610,18 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" s="3">
         <v>45132</v>
@@ -8457,18 +7631,18 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>44936</v>
@@ -8478,18 +7652,18 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" s="3">
         <v>44788</v>
@@ -8499,18 +7673,18 @@
         <v>46614</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="3">
         <v>44711</v>
@@ -8520,18 +7694,18 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" s="3">
         <v>45555</v>
@@ -8541,18 +7715,18 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" s="3">
         <v>43886</v>
@@ -8562,18 +7736,18 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.6" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="3">
         <v>45422</v>
@@ -8583,18 +7757,18 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.6" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C83" s="3">
         <v>44788</v>
@@ -8604,18 +7778,18 @@
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" s="3">
         <v>44550</v>
@@ -8625,18 +7799,18 @@
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" s="3">
         <v>44676</v>
@@ -8646,18 +7820,18 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="3">
         <v>43676</v>
@@ -8667,18 +7841,18 @@
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="3">
         <v>44686</v>
@@ -8688,18 +7862,18 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3">
         <v>44357</v>
@@ -8709,18 +7883,18 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.6" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="3">
         <v>44119</v>
@@ -8730,18 +7904,18 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.6" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="3">
         <v>44732</v>
@@ -8751,18 +7925,18 @@
         <v>46558</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.6" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" s="3">
         <v>44767</v>
@@ -8772,18 +7946,18 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="3">
         <v>44530</v>
@@ -8793,18 +7967,18 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" s="3">
         <v>45417</v>
@@ -8814,18 +7988,18 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.6" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="3">
         <v>43687</v>
@@ -8835,18 +8009,18 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" s="3">
         <v>44757</v>
@@ -8856,18 +8030,18 @@
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.6" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96" s="3">
         <v>44459</v>
@@ -8877,18 +8051,18 @@
         <v>46285</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.6" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="3">
         <v>45682</v>
@@ -8898,18 +8072,18 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.6" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="3">
         <v>44803</v>
@@ -8919,18 +8093,18 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.6" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="3">
         <v>44717</v>
@@ -8940,18 +8114,18 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.6" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="3">
         <v>45483</v>
@@ -8961,18 +8135,18 @@
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.6" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="3">
         <v>45245</v>
@@ -8982,18 +8156,18 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="18.6" customHeight="1" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="3">
         <v>44140</v>
@@ -9003,18 +8177,18 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.9" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="3">
         <v>43607</v>
@@ -9024,18 +8198,18 @@
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="3">
         <v>44803</v>
@@ -9045,18 +8219,18 @@
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16.9" customHeight="1" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3">
         <v>44362</v>
@@ -9066,10 +8240,10 @@
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -9078,639 +8252,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B37C30-1EF2-4FA6-8D87-84F2CFB12A34}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B37C30-1EF2-4FA6-8D87-84F2CFB12A34}">
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15"/>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15"/>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC07EC-1F1B-4AB6-ABA2-1B0298D00F6E}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC07EC-1F1B-4AB6-ABA2-1B0298D00F6E}">
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15"/>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15"/>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057554C6-4D49-4FA4-B6C1-650892D584CA}">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057554C6-4D49-4FA4-B6C1-650892D584CA}">
+  <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15"/>
-    <row r="2" spans="1:4" ht="15"/>
-    <row r="3" spans="1:4" ht="15"/>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="9">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="7">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="7">
         <v>45823</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="C9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="7">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="B10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="9">
-        <v>45807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="C12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="9">
-        <v>45807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="C15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="B16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" t="s">
+      <c r="D48" s="7">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="7">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="7">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="9">
-        <v>45797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="9">
-        <v>45828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="9">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="C25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="9">
-        <v>45828</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="C28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="9">
-        <v>45772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="C31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="9">
-        <v>45777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="C35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="9">
-        <v>45813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="9">
-        <v>45823</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="C41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="9">
-        <v>45818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="C45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="9">
-        <v>45813</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="C49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="9">
-        <v>45818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15">
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15">
-      <c r="B54" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="9">
-        <v>45782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
-      <c r="C56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15">
-      <c r="B57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
-      <c r="A58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -9719,90 +8886,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936767C1-F437-4C6B-AAD7-0788BD81165F}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936767C1-F437-4C6B-AAD7-0788BD81165F}">
+  <dimension ref="A4:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15"/>
-    <row r="2" spans="1:3" ht="15"/>
-    <row r="3" spans="1:3" ht="15"/>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="9">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7">
         <v>45752</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="9">
+        <v>105</v>
+      </c>
+      <c r="C10" s="7">
         <v>45772</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
